--- a/data/trans_orig/P1803_2016_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1803_2016_2023-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>28158</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18518</v>
+        <v>18828</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39300</v>
+        <v>39543</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03732827158121402</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02454795979798964</v>
+        <v>0.02495917012553769</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05209805744978342</v>
+        <v>0.05242081066831089</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -763,19 +763,19 @@
         <v>41270</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30420</v>
+        <v>28794</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>57132</v>
+        <v>56993</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04149197209395859</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03058378242627453</v>
+        <v>0.02894828960981292</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0574391033407724</v>
+        <v>0.05729922581166806</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>64</v>
@@ -784,19 +784,19 @@
         <v>69429</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>53964</v>
+        <v>53778</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>87098</v>
+        <v>90168</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03969616787230585</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03085420406336968</v>
+        <v>0.03074752115559723</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04979834787744003</v>
+        <v>0.05155363315150831</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>726189</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>715047</v>
+        <v>714804</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>735829</v>
+        <v>735519</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.962671728418786</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9479019425502165</v>
+        <v>0.9475791893316892</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9754520402020104</v>
+        <v>0.9750408298744623</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>856</v>
@@ -834,19 +834,19 @@
         <v>953390</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>937528</v>
+        <v>937667</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>964240</v>
+        <v>965866</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9585080279060414</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.942560896659227</v>
+        <v>0.9427007741883318</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.969416217573725</v>
+        <v>0.9710517103901871</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1590</v>
@@ -855,19 +855,19 @@
         <v>1679578</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1661909</v>
+        <v>1658839</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1695043</v>
+        <v>1695229</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9603038321276941</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.95020165212256</v>
+        <v>0.9484463668484917</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9691457959366304</v>
+        <v>0.9692524788444028</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>88374</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>72142</v>
+        <v>70554</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>109277</v>
+        <v>107552</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04256152561203605</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03474384779064493</v>
+        <v>0.03397902178813717</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05262858594478677</v>
+        <v>0.05179760698943435</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>98</v>
@@ -980,19 +980,19 @@
         <v>105160</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>84598</v>
+        <v>85991</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>127556</v>
+        <v>128176</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05288942008628056</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04254781397836812</v>
+        <v>0.0432484716350628</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0641535362589353</v>
+        <v>0.06446489308828993</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>178</v>
@@ -1001,19 +1001,19 @@
         <v>193534</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>169082</v>
+        <v>166214</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>226715</v>
+        <v>222273</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04761356607750025</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04159788610980468</v>
+        <v>0.04089221577355164</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.055776785717344</v>
+        <v>0.05468392712175087</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>1988011</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1967108</v>
+        <v>1968833</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2004243</v>
+        <v>2005831</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9574384743879639</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9473714140552132</v>
+        <v>0.9482023930105661</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.965256152209355</v>
+        <v>0.9660209782118628</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1810</v>
@@ -1051,19 +1051,19 @@
         <v>1883140</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1860744</v>
+        <v>1860124</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1903702</v>
+        <v>1902309</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9471105799137195</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9358464637410646</v>
+        <v>0.9355351069117102</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9574521860216318</v>
+        <v>0.9567515283649373</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3682</v>
@@ -1072,19 +1072,19 @@
         <v>3871151</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3837970</v>
+        <v>3842412</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3895603</v>
+        <v>3898471</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9523864339224998</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.944223214282656</v>
+        <v>0.9453160728782491</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9584021138901953</v>
+        <v>0.9591077842264483</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>37917</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26481</v>
+        <v>26778</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51635</v>
+        <v>52575</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06933250744671157</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04842163432597302</v>
+        <v>0.04896437992782741</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09441697737403378</v>
+        <v>0.09613569243423845</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>46</v>
@@ -1197,19 +1197,19 @@
         <v>48333</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35079</v>
+        <v>35823</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>63199</v>
+        <v>63539</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08801491481619725</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06388036615702797</v>
+        <v>0.06523399936569498</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1150872255161965</v>
+        <v>0.1157061302611163</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>79</v>
@@ -1218,19 +1218,19 @@
         <v>86250</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>69512</v>
+        <v>68379</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>106851</v>
+        <v>106828</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07869292271939871</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06342207603732736</v>
+        <v>0.06238818417467532</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09748902105477429</v>
+        <v>0.09746824353321533</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>508969</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>495251</v>
+        <v>494311</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>520405</v>
+        <v>520108</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9306674925532884</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9055830226259663</v>
+        <v>0.9038643075657615</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9515783656740271</v>
+        <v>0.9510356200721727</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>480</v>
@@ -1268,19 +1268,19 @@
         <v>500807</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>485941</v>
+        <v>485601</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>514061</v>
+        <v>513317</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9119850851838027</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8849127744838031</v>
+        <v>0.8842938697388839</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.936119633842972</v>
+        <v>0.934766000634305</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>948</v>
@@ -1289,19 +1289,19 @@
         <v>1009777</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>989176</v>
+        <v>989199</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1026515</v>
+        <v>1027648</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9213070772806013</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9025109789452251</v>
+        <v>0.9025317564667844</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9365779239626726</v>
+        <v>0.9376118158253243</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>154450</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>131095</v>
+        <v>129490</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>183114</v>
+        <v>180367</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04572736421381191</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03881274891763604</v>
+        <v>0.0383376094483413</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05421401192827929</v>
+        <v>0.05340071654893434</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>180</v>
@@ -1414,19 +1414,19 @@
         <v>194763</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>166515</v>
+        <v>171235</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>224593</v>
+        <v>225654</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05514083951912957</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04714342598434629</v>
+        <v>0.04847979208067267</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06358633304076085</v>
+        <v>0.06388667802872157</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>321</v>
@@ -1435,19 +1435,19 @@
         <v>349213</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>313844</v>
+        <v>316414</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>393599</v>
+        <v>393896</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05053933180878385</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04542062053793901</v>
+        <v>0.04579254683737446</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.056963040890384</v>
+        <v>0.05700612166702643</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>3223168</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3194504</v>
+        <v>3197251</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3246523</v>
+        <v>3248128</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.954272635786188</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9457859880717213</v>
+        <v>0.9465992834510659</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9611872510823639</v>
+        <v>0.9616623905516587</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3146</v>
@@ -1485,19 +1485,19 @@
         <v>3337337</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3307507</v>
+        <v>3306446</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3365585</v>
+        <v>3360865</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9448591604808705</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9364136669592391</v>
+        <v>0.9361133219712785</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9528565740156538</v>
+        <v>0.9515202079193273</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6220</v>
@@ -1506,19 +1506,19 @@
         <v>6560505</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6516119</v>
+        <v>6515822</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6595874</v>
+        <v>6593304</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9494606681912161</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.943036959109616</v>
+        <v>0.9429938783329733</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9545793794620608</v>
+        <v>0.9542074531626253</v>
       </c>
     </row>
     <row r="15">
@@ -1849,19 +1849,19 @@
         <v>23348</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15406</v>
+        <v>15883</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33691</v>
+        <v>33150</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.04035723974047606</v>
+        <v>0.04035723974047605</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02662897942808022</v>
+        <v>0.02745492783513149</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05823624366410379</v>
+        <v>0.05730105949537891</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>98</v>
@@ -1870,19 +1870,19 @@
         <v>54874</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>43962</v>
+        <v>44759</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>67245</v>
+        <v>66546</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06680157107554992</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05351828867491123</v>
+        <v>0.05448815669744186</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08186171096522142</v>
+        <v>0.08101095495175578</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>125</v>
@@ -1891,19 +1891,19 @@
         <v>78221</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>66009</v>
+        <v>65056</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>93679</v>
+        <v>92841</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05587361496823517</v>
+        <v>0.05587361496823515</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04715039492107233</v>
+        <v>0.04646926887186501</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06691506372903577</v>
+        <v>0.06631629773396795</v>
       </c>
     </row>
     <row r="5">
@@ -1920,19 +1920,19 @@
         <v>555181</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>544838</v>
+        <v>545379</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>563123</v>
+        <v>562646</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.959642760259524</v>
+        <v>0.9596427602595241</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9417637563358962</v>
+        <v>0.9426989405046207</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9733710205719198</v>
+        <v>0.9725450721648683</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1328</v>
@@ -1941,19 +1941,19 @@
         <v>766568</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>754197</v>
+        <v>754896</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>777480</v>
+        <v>776683</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.93319842892445</v>
+        <v>0.9331984289244502</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9181382890347782</v>
+        <v>0.918989045048244</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9464817113250887</v>
+        <v>0.9455118433025578</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1992</v>
@@ -1962,19 +1962,19 @@
         <v>1321750</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1306292</v>
+        <v>1307130</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1333962</v>
+        <v>1334915</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9441263850317652</v>
+        <v>0.9441263850317649</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9330849362709643</v>
+        <v>0.933683702266032</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9528496050789279</v>
+        <v>0.953530731128135</v>
       </c>
     </row>
     <row r="6">
@@ -2066,19 +2066,19 @@
         <v>171653</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>144903</v>
+        <v>146992</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>198957</v>
+        <v>200937</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07695475281127045</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06496261813141177</v>
+        <v>0.06589916619871894</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08919567433506638</v>
+        <v>0.09008347569147601</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>302</v>
@@ -2087,19 +2087,19 @@
         <v>204416</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>180095</v>
+        <v>181617</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>229278</v>
+        <v>229938</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09417010213854757</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08296620854549006</v>
+        <v>0.08366733559075373</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1056234701801528</v>
+        <v>0.1059275722345523</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>459</v>
@@ -2108,19 +2108,19 @@
         <v>376068</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>344029</v>
+        <v>342842</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>419502</v>
+        <v>416336</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.08544535962334726</v>
+        <v>0.08544535962334728</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0781658140535665</v>
+        <v>0.07789608559085841</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09531379793545337</v>
+        <v>0.09459452849667793</v>
       </c>
     </row>
     <row r="8">
@@ -2137,19 +2137,19 @@
         <v>2058913</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2031609</v>
+        <v>2029629</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2085663</v>
+        <v>2083574</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9230452471887297</v>
+        <v>0.9230452471887296</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9108043256649337</v>
+        <v>0.9099165243085239</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9350373818685882</v>
+        <v>0.9341008338012808</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2618</v>
@@ -2158,19 +2158,19 @@
         <v>1966291</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1941429</v>
+        <v>1940769</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1990612</v>
+        <v>1989090</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9058298978614525</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8943765298198472</v>
+        <v>0.8940724277654479</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9170337914545104</v>
+        <v>0.9163326644092463</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4453</v>
@@ -2179,19 +2179,19 @@
         <v>4025206</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3981772</v>
+        <v>3984938</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4057245</v>
+        <v>4058432</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9145546403766527</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9046862020645471</v>
+        <v>0.9054054715033222</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9218341859464336</v>
+        <v>0.9221039144091417</v>
       </c>
     </row>
     <row r="9">
@@ -2283,19 +2283,19 @@
         <v>86996</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>70118</v>
+        <v>70683</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>107874</v>
+        <v>109350</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1222558746037987</v>
+        <v>0.1222558746037986</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09853731569501861</v>
+        <v>0.09933154283273199</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1515961339319591</v>
+        <v>0.153670352019814</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>149</v>
@@ -2304,19 +2304,19 @@
         <v>110126</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>92913</v>
+        <v>93429</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>128163</v>
+        <v>128115</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1498557986640409</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1264340543986779</v>
+        <v>0.1271356926481919</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1744002414638268</v>
+        <v>0.1743353088979597</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>228</v>
@@ -2325,19 +2325,19 @@
         <v>197121</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>170793</v>
+        <v>174275</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>223100</v>
+        <v>223953</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1362780367672147</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1180759489970936</v>
+        <v>0.1204833078674662</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1542384712202407</v>
+        <v>0.1548280848084523</v>
       </c>
     </row>
     <row r="11">
@@ -2354,19 +2354,19 @@
         <v>624591</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>603713</v>
+        <v>602237</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>641469</v>
+        <v>640904</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8777441253962014</v>
+        <v>0.8777441253962013</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.848403866068041</v>
+        <v>0.8463296479801858</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9014626843049814</v>
+        <v>0.9006684571672681</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>855</v>
@@ -2375,19 +2375,19 @@
         <v>624751</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>606714</v>
+        <v>606762</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>641964</v>
+        <v>641448</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.850144201335959</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8255997585361732</v>
+        <v>0.8256646911020407</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8735659456013221</v>
+        <v>0.8728643073518081</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1457</v>
@@ -2396,19 +2396,19 @@
         <v>1249343</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1223364</v>
+        <v>1222511</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1275671</v>
+        <v>1272189</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8637219632327854</v>
+        <v>0.8637219632327852</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8457615287797594</v>
+        <v>0.8451719151915476</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8819240510029064</v>
+        <v>0.8795166921325335</v>
       </c>
     </row>
     <row r="12">
@@ -2500,19 +2500,19 @@
         <v>281996</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>250874</v>
+        <v>249177</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>320239</v>
+        <v>320075</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.08009702776724301</v>
+        <v>0.08009702776724302</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07125726027010333</v>
+        <v>0.07077516410423687</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09095920749145522</v>
+        <v>0.09091287429237319</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>549</v>
@@ -2521,19 +2521,19 @@
         <v>369415</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>342638</v>
+        <v>338345</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>401677</v>
+        <v>404451</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09911788036309484</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09193335445535195</v>
+        <v>0.0907816305924893</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1077741839582814</v>
+        <v>0.1085184882101908</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>812</v>
@@ -2542,19 +2542,19 @@
         <v>651411</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>604055</v>
+        <v>604760</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>699025</v>
+        <v>701893</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08987821750080244</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08334430877537029</v>
+        <v>0.08344149600063198</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09644777367581284</v>
+        <v>0.09684337974598757</v>
       </c>
     </row>
     <row r="14">
@@ -2571,19 +2571,19 @@
         <v>3238687</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3200444</v>
+        <v>3200608</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3269809</v>
+        <v>3271506</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9199029722327569</v>
+        <v>0.919902972232757</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9090407925085443</v>
+        <v>0.9090871257076268</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9287427397298965</v>
+        <v>0.9292248358957632</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4801</v>
@@ -2592,19 +2592,19 @@
         <v>3357611</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3325349</v>
+        <v>3322575</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3384388</v>
+        <v>3388681</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9008821196369052</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8922258160417186</v>
+        <v>0.8914815117898089</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9080666455446482</v>
+        <v>0.9092183694075107</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7902</v>
@@ -2613,19 +2613,19 @@
         <v>6596298</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6548684</v>
+        <v>6545816</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6643654</v>
+        <v>6642949</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9101217824991975</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.903552226324187</v>
+        <v>0.9031566202540124</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9166556912246296</v>
+        <v>0.9165585039993681</v>
       </c>
     </row>
     <row r="15">
